--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.6636948308222</v>
+        <v>30.40492633333334</v>
       </c>
       <c r="H2">
-        <v>25.6636948308222</v>
+        <v>91.21477900000001</v>
       </c>
       <c r="I2">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="J2">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>133.4210681451769</v>
+        <v>205.0732113527568</v>
       </c>
       <c r="R2">
-        <v>133.4210681451769</v>
+        <v>1845.658902174811</v>
       </c>
       <c r="S2">
-        <v>0.001428331333158418</v>
+        <v>0.002064141318873418</v>
       </c>
       <c r="T2">
-        <v>0.001428331333158418</v>
+        <v>0.002064141318873418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.6636948308222</v>
+        <v>30.40492633333334</v>
       </c>
       <c r="H3">
-        <v>25.6636948308222</v>
+        <v>91.21477900000001</v>
       </c>
       <c r="I3">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="J3">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>4672.059660835761</v>
+        <v>5549.862354844402</v>
       </c>
       <c r="R3">
-        <v>4672.059660835761</v>
+        <v>49948.76119359962</v>
       </c>
       <c r="S3">
-        <v>0.0500164576459242</v>
+        <v>0.05586151465190123</v>
       </c>
       <c r="T3">
-        <v>0.0500164576459242</v>
+        <v>0.05586151465190123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.6636948308222</v>
+        <v>30.40492633333334</v>
       </c>
       <c r="H4">
-        <v>25.6636948308222</v>
+        <v>91.21477900000001</v>
       </c>
       <c r="I4">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="J4">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>6389.631250307311</v>
+        <v>7574.867907513644</v>
       </c>
       <c r="R4">
-        <v>6389.631250307311</v>
+        <v>68173.8111676228</v>
       </c>
       <c r="S4">
-        <v>0.06840381844501106</v>
+        <v>0.0762439800389704</v>
       </c>
       <c r="T4">
-        <v>0.06840381844501106</v>
+        <v>0.0762439800389704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.6636948308222</v>
+        <v>30.40492633333334</v>
       </c>
       <c r="H5">
-        <v>25.6636948308222</v>
+        <v>91.21477900000001</v>
       </c>
       <c r="I5">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="J5">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>4668.524836668154</v>
+        <v>5683.625909374975</v>
       </c>
       <c r="R5">
-        <v>4668.524836668154</v>
+        <v>51152.63318437477</v>
       </c>
       <c r="S5">
-        <v>0.04997861579541298</v>
+        <v>0.05720789664906509</v>
       </c>
       <c r="T5">
-        <v>0.04997861579541298</v>
+        <v>0.05720789664906508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.6636948308222</v>
+        <v>30.40492633333334</v>
       </c>
       <c r="H6">
-        <v>25.6636948308222</v>
+        <v>91.21477900000001</v>
       </c>
       <c r="I6">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="J6">
-        <v>0.1740821211532682</v>
+        <v>0.1967210800742636</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>397.4519174874165</v>
+        <v>530.8834324874886</v>
       </c>
       <c r="R6">
-        <v>397.4519174874165</v>
+        <v>4777.950892387397</v>
       </c>
       <c r="S6">
-        <v>0.004254897933761542</v>
+        <v>0.005343547415453496</v>
       </c>
       <c r="T6">
-        <v>0.004254897933761542</v>
+        <v>0.005343547415453496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.0613880167988</v>
+        <v>94.59157066666667</v>
       </c>
       <c r="H7">
-        <v>94.0613880167988</v>
+        <v>283.774712</v>
       </c>
       <c r="I7">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227749</v>
       </c>
       <c r="J7">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227748</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>489.0087317180421</v>
+        <v>637.9952035025342</v>
       </c>
       <c r="R7">
-        <v>489.0087317180421</v>
+        <v>5741.956831522808</v>
       </c>
       <c r="S7">
-        <v>0.005235053979188123</v>
+        <v>0.006421668886470738</v>
       </c>
       <c r="T7">
-        <v>0.005235053979188123</v>
+        <v>0.006421668886470738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.0613880167988</v>
+        <v>94.59157066666667</v>
       </c>
       <c r="H8">
-        <v>94.0613880167988</v>
+        <v>283.774712</v>
       </c>
       <c r="I8">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227749</v>
       </c>
       <c r="J8">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227748</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>17123.81710788238</v>
+        <v>17265.95852833906</v>
       </c>
       <c r="R8">
-        <v>17123.81710788238</v>
+        <v>155393.6267550515</v>
       </c>
       <c r="S8">
-        <v>0.1833180086060248</v>
+        <v>0.1737885615249591</v>
       </c>
       <c r="T8">
-        <v>0.1833180086060248</v>
+        <v>0.1737885615249591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.0613880167988</v>
+        <v>94.59157066666667</v>
       </c>
       <c r="H9">
-        <v>94.0613880167988</v>
+        <v>283.774712</v>
       </c>
       <c r="I9">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227749</v>
       </c>
       <c r="J9">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227748</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>23418.98110468469</v>
+        <v>23565.87367155411</v>
       </c>
       <c r="R9">
-        <v>23418.98110468469</v>
+        <v>212092.863043987</v>
       </c>
       <c r="S9">
-        <v>0.2507105134705465</v>
+        <v>0.2371996480668179</v>
       </c>
       <c r="T9">
-        <v>0.2507105134705465</v>
+        <v>0.2371996480668179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>94.0613880167988</v>
+        <v>94.59157066666667</v>
       </c>
       <c r="H10">
-        <v>94.0613880167988</v>
+        <v>283.774712</v>
       </c>
       <c r="I10">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227749</v>
       </c>
       <c r="J10">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227748</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>17110.86143373678</v>
+        <v>17682.10506269627</v>
       </c>
       <c r="R10">
-        <v>17110.86143373678</v>
+        <v>159138.9455642664</v>
       </c>
       <c r="S10">
-        <v>0.1831793124047306</v>
+        <v>0.1779772376109601</v>
       </c>
       <c r="T10">
-        <v>0.1831793124047306</v>
+        <v>0.17797723761096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>94.0613880167988</v>
+        <v>94.59157066666667</v>
       </c>
       <c r="H11">
-        <v>94.0613880167988</v>
+        <v>283.774712</v>
       </c>
       <c r="I11">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227749</v>
       </c>
       <c r="J11">
-        <v>0.6380377436891593</v>
+        <v>0.6120112163227748</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>1456.722396180662</v>
+        <v>1651.610570253188</v>
       </c>
       <c r="R11">
-        <v>1456.722396180662</v>
+        <v>14864.49513227869</v>
       </c>
       <c r="S11">
-        <v>0.01559485522866926</v>
+        <v>0.01662410023356698</v>
       </c>
       <c r="T11">
-        <v>0.01559485522866926</v>
+        <v>0.01662410023356697</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.32682332426571</v>
+        <v>7.739929666666666</v>
       </c>
       <c r="H12">
-        <v>7.32682332426571</v>
+        <v>23.219789</v>
       </c>
       <c r="I12">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="J12">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>38.09087508555012</v>
+        <v>52.20378484021121</v>
       </c>
       <c r="R12">
-        <v>38.09087508555012</v>
+        <v>469.834063561901</v>
       </c>
       <c r="S12">
-        <v>0.0004077796044393408</v>
+        <v>0.000525451318480117</v>
       </c>
       <c r="T12">
-        <v>0.0004077796044393408</v>
+        <v>0.0005254513184801171</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.32682332426571</v>
+        <v>7.739929666666666</v>
       </c>
       <c r="H13">
-        <v>7.32682332426571</v>
+        <v>23.219789</v>
       </c>
       <c r="I13">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="J13">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>1333.843623103732</v>
+        <v>1412.782383198343</v>
       </c>
       <c r="R13">
-        <v>1333.843623103732</v>
+        <v>12715.04144878508</v>
       </c>
       <c r="S13">
-        <v>0.01427938381020583</v>
+        <v>0.01422020200736938</v>
       </c>
       <c r="T13">
-        <v>0.01427938381020583</v>
+        <v>0.01422020200736939</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.32682332426571</v>
+        <v>7.739929666666666</v>
       </c>
       <c r="H14">
-        <v>7.32682332426571</v>
+        <v>23.219789</v>
       </c>
       <c r="I14">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="J14">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>1824.199499987151</v>
+        <v>1928.271234591692</v>
       </c>
       <c r="R14">
-        <v>1824.199499987151</v>
+        <v>17354.44111132522</v>
       </c>
       <c r="S14">
-        <v>0.01952885957207618</v>
+        <v>0.01940879700015613</v>
       </c>
       <c r="T14">
-        <v>0.01952885957207618</v>
+        <v>0.01940879700015613</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.32682332426571</v>
+        <v>7.739929666666666</v>
       </c>
       <c r="H15">
-        <v>7.32682332426571</v>
+        <v>23.219789</v>
       </c>
       <c r="I15">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="J15">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>1332.834453055181</v>
+        <v>1446.833460733595</v>
       </c>
       <c r="R15">
-        <v>1332.834453055181</v>
+        <v>13021.50114660235</v>
       </c>
       <c r="S15">
-        <v>0.01426858020009486</v>
+        <v>0.014562939294356</v>
       </c>
       <c r="T15">
-        <v>0.01426858020009486</v>
+        <v>0.014562939294356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.32682332426571</v>
+        <v>7.739929666666666</v>
       </c>
       <c r="H16">
-        <v>7.32682332426571</v>
+        <v>23.219789</v>
       </c>
       <c r="I16">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="J16">
-        <v>0.04969934976282415</v>
+        <v>0.05007765212232225</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>113.4700205296838</v>
+        <v>135.1425878689596</v>
       </c>
       <c r="R16">
-        <v>113.4700205296838</v>
+        <v>1216.283290820636</v>
       </c>
       <c r="S16">
-        <v>0.001214746576007944</v>
+        <v>0.001360262501960625</v>
       </c>
       <c r="T16">
-        <v>0.001214746576007944</v>
+        <v>0.001360262501960625</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.60447370470306</v>
+        <v>5.074565333333333</v>
       </c>
       <c r="H17">
-        <v>4.60447370470306</v>
+        <v>15.223696</v>
       </c>
       <c r="I17">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="J17">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>23.93785477802848</v>
+        <v>34.22660517960711</v>
       </c>
       <c r="R17">
-        <v>23.93785477802848</v>
+        <v>308.039446616464</v>
       </c>
       <c r="S17">
-        <v>0.000256265284811318</v>
+        <v>0.0003445040407275227</v>
       </c>
       <c r="T17">
-        <v>0.000256265284811318</v>
+        <v>0.0003445040407275227</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.60447370470306</v>
+        <v>5.074565333333333</v>
       </c>
       <c r="H18">
-        <v>4.60447370470306</v>
+        <v>15.223696</v>
       </c>
       <c r="I18">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="J18">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>838.2415703169017</v>
+        <v>926.2689474037459</v>
       </c>
       <c r="R18">
-        <v>838.2415703169017</v>
+        <v>8336.420526633712</v>
       </c>
       <c r="S18">
-        <v>0.008973745423299755</v>
+        <v>0.009323255797836116</v>
       </c>
       <c r="T18">
-        <v>0.008973745423299755</v>
+        <v>0.009323255797836117</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.60447370470306</v>
+        <v>5.074565333333333</v>
       </c>
       <c r="H19">
-        <v>4.60447370470306</v>
+        <v>15.223696</v>
       </c>
       <c r="I19">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="J19">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>1146.40114249856</v>
+        <v>1264.241250468236</v>
       </c>
       <c r="R19">
-        <v>1146.40114249856</v>
+        <v>11378.17125421413</v>
       </c>
       <c r="S19">
-        <v>0.01227272944942687</v>
+        <v>0.01272507796070364</v>
       </c>
       <c r="T19">
-        <v>0.01227272944942687</v>
+        <v>0.01272507796070364</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.60447370470306</v>
+        <v>5.074565333333333</v>
       </c>
       <c r="H20">
-        <v>4.60447370470306</v>
+        <v>15.223696</v>
       </c>
       <c r="I20">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="J20">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>837.6073668229081</v>
+        <v>948.5940104294739</v>
       </c>
       <c r="R20">
-        <v>837.6073668229081</v>
+        <v>8537.346093865264</v>
       </c>
       <c r="S20">
-        <v>0.008966955995403076</v>
+        <v>0.009547966206055112</v>
       </c>
       <c r="T20">
-        <v>0.008966955995403076</v>
+        <v>0.009547966206055112</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.60447370470306</v>
+        <v>5.074565333333333</v>
       </c>
       <c r="H21">
-        <v>4.60447370470306</v>
+        <v>15.223696</v>
       </c>
       <c r="I21">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="J21">
-        <v>0.03123309229606655</v>
+        <v>0.032832639103826</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>71.30917488765935</v>
+        <v>88.60415029483379</v>
       </c>
       <c r="R21">
-        <v>71.30917488765935</v>
+        <v>797.4373526535041</v>
       </c>
       <c r="S21">
-        <v>0.0007633961431255351</v>
+        <v>0.0008918350985036066</v>
       </c>
       <c r="T21">
-        <v>0.0007633961431255351</v>
+        <v>0.0008918350985036067</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.7665413332624</v>
+        <v>16.74756533333333</v>
       </c>
       <c r="H22">
-        <v>15.7665413332624</v>
+        <v>50.242696</v>
       </c>
       <c r="I22">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="J22">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>81.96749530829567</v>
+        <v>112.9579123986071</v>
       </c>
       <c r="R22">
-        <v>81.96749530829567</v>
+        <v>1016.621211587464</v>
       </c>
       <c r="S22">
-        <v>0.0008774981603502218</v>
+        <v>0.001136965148873476</v>
       </c>
       <c r="T22">
-        <v>0.0008774981603502218</v>
+        <v>0.001136965148873476</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.7665413332624</v>
+        <v>16.74756533333333</v>
       </c>
       <c r="H23">
-        <v>15.7665413332624</v>
+        <v>50.242696</v>
       </c>
       <c r="I23">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="J23">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>2870.289030462063</v>
+        <v>3056.961275280746</v>
       </c>
       <c r="R23">
-        <v>2870.289030462063</v>
+        <v>27512.65147752671</v>
       </c>
       <c r="S23">
-        <v>0.03072770900746281</v>
+        <v>0.03076949952107014</v>
       </c>
       <c r="T23">
-        <v>0.03072770900746281</v>
+        <v>0.03076949952107015</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.7665413332624</v>
+        <v>16.74756533333333</v>
       </c>
       <c r="H24">
-        <v>15.7665413332624</v>
+        <v>50.242696</v>
       </c>
       <c r="I24">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="J24">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>3925.482510463899</v>
+        <v>4172.369759481237</v>
       </c>
       <c r="R24">
-        <v>3925.482510463899</v>
+        <v>37551.32783533113</v>
       </c>
       <c r="S24">
-        <v>0.04202402023464568</v>
+        <v>0.0419965180305711</v>
       </c>
       <c r="T24">
-        <v>0.04202402023464568</v>
+        <v>0.0419965180305711</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.7665413332624</v>
+        <v>16.74756533333333</v>
       </c>
       <c r="H25">
-        <v>15.7665413332624</v>
+        <v>50.242696</v>
       </c>
       <c r="I25">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="J25">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>2868.11740429086</v>
+        <v>3130.640581198474</v>
       </c>
       <c r="R25">
-        <v>2868.11740429086</v>
+        <v>28175.76523078627</v>
       </c>
       <c r="S25">
-        <v>0.03070446079226443</v>
+        <v>0.0315111102789428</v>
       </c>
       <c r="T25">
-        <v>0.03070446079226443</v>
+        <v>0.03151111027894279</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.7665413332624</v>
+        <v>16.74756533333333</v>
       </c>
       <c r="H26">
-        <v>15.7665413332624</v>
+        <v>50.242696</v>
       </c>
       <c r="I26">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="J26">
-        <v>0.1069476930986817</v>
+        <v>0.1083574123768132</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>244.1753662658008</v>
+        <v>292.4198819788338</v>
       </c>
       <c r="R26">
-        <v>244.1753662658008</v>
+        <v>2631.778937809504</v>
       </c>
       <c r="S26">
-        <v>0.002614004903958519</v>
+        <v>0.002943319397355725</v>
       </c>
       <c r="T26">
-        <v>0.002614004903958519</v>
+        <v>0.002943319397355725</v>
       </c>
     </row>
   </sheetData>
